--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1981844.066501211</v>
+        <v>-1986557.977455575</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516703</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14301320.71877626</v>
+        <v>14298960.80121459</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>177.9722013956089</v>
+        <v>104.0301681245774</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968057</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>44.83908341485456</v>
       </c>
     </row>
     <row r="4">
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>118.4523810927072</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.3306245132107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>323.4185073489846</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>59.89099972319445</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>54.92091011697716</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968057</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>159.3149947016331</v>
+        <v>146.8340739597078</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -1120,7 +1120,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>45.63476743790491</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1193,10 +1193,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>249.9658239981817</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>75.79955572800377</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>86.19803820173308</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>54.26195302970597</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>45.55009992423298</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,7 +1591,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0.004793142213047794</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.5353505325785</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>69.77581967919716</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>137.9901287944496</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.129828938698</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
@@ -2324,7 +2324,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603044</v>
@@ -2567,13 +2567,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825603</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.9624712641433</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404343</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954308</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
@@ -2618,7 +2618,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419572</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
         <v>298.5345275142884</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007175</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035416</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219388</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507299</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484026</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.5802388872324</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380444</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497637</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943229</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
-        <v>186.5058235738176</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
         <v>137.7482445205302</v>
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2804,13 +2804,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825603</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.9624712641433</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404343</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954308</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419572</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007175</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035416</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219388</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507299</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484026</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.5802388872324</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380444</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497637</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943229</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738176</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
         <v>137.7482445205302</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542116</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820274</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954276</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345496</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852507</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568056</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291029</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838853</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828865</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161062</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696761</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034455</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813241</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162024</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885336</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431697</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459938</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643911</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931822</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908549</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147762</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804966</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922159</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367751</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920483</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133769</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404468</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273127</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480629</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947754</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714518</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1790.506600564711</v>
+        <v>1403.073059142962</v>
       </c>
       <c r="C2" t="n">
-        <v>1397.331099067641</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="D2" t="n">
-        <v>1011.889970284309</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="E2" t="n">
-        <v>1011.889970284309</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F2" t="n">
-        <v>594.9955318142869</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G2" t="n">
-        <v>181.83277630229</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.83277630229</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310448</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059665</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="N2" t="n">
-        <v>1989.937409596795</v>
+        <v>1706.678668603072</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596795</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596795</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737743</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023265</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964316</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964316</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.276500964316</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="V2" t="n">
-        <v>1790.506600564711</v>
+        <v>1803.567804854359</v>
       </c>
       <c r="W2" t="n">
-        <v>1790.506600564711</v>
+        <v>1803.567804854359</v>
       </c>
       <c r="X2" t="n">
-        <v>1790.506600564711</v>
+        <v>1803.567804854359</v>
       </c>
       <c r="Y2" t="n">
-        <v>1790.506600564711</v>
+        <v>1803.567804854359</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347858</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="C3" t="n">
-        <v>692.207412094878</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163583</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822423</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284327</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144822</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.9158735750219</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="M3" t="n">
-        <v>996.5377244563638</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466455</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466455</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182853</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737743</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737743</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737743</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757471</v>
+        <v>842.011333897423</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1584.447611332182</v>
+        <v>1516.978332377092</v>
       </c>
       <c r="C4" t="n">
-        <v>1584.447611332182</v>
+        <v>1516.978332377092</v>
       </c>
       <c r="D4" t="n">
-        <v>1428.814498234697</v>
+        <v>1516.978332377092</v>
       </c>
       <c r="E4" t="n">
-        <v>1428.814498234697</v>
+        <v>1361.419520236295</v>
       </c>
       <c r="F4" t="n">
-        <v>1428.814498234697</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="G4" t="n">
-        <v>1428.814498234697</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196191</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196191</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196191</v>
+        <v>1173.715315275369</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306133</v>
+        <v>1255.550356385311</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179932</v>
+        <v>1419.677996259111</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518197</v>
+        <v>1605.969574597375</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549406</v>
+        <v>1789.159208628584</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591114</v>
+        <v>1951.863975670292</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367692</v>
+        <v>2071.740141446871</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737743</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737743</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737743</v>
+        <v>1872.346253999471</v>
       </c>
       <c r="T4" t="n">
-        <v>1939.063917905977</v>
+        <v>1636.627202167705</v>
       </c>
       <c r="U4" t="n">
-        <v>1939.063917905977</v>
+        <v>1516.978332377092</v>
       </c>
       <c r="V4" t="n">
-        <v>1939.063917905977</v>
+        <v>1516.978332377092</v>
       </c>
       <c r="W4" t="n">
-        <v>1939.063917905977</v>
+        <v>1516.978332377092</v>
       </c>
       <c r="X4" t="n">
-        <v>1704.983595688961</v>
+        <v>1516.978332377092</v>
       </c>
       <c r="Y4" t="n">
-        <v>1584.447611332182</v>
+        <v>1516.978332377092</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1257.537103003158</v>
+        <v>1640.678715023045</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.537103003158</v>
+        <v>1247.503213525976</v>
       </c>
       <c r="D5" t="n">
-        <v>872.0959742198254</v>
+        <v>1247.503213525976</v>
       </c>
       <c r="E5" t="n">
-        <v>469.5124493363699</v>
+        <v>1247.503213525976</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634764</v>
+        <v>830.6087750559533</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475487</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475487</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>188.145432303583</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>188.145432303583</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354825</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572945</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465273</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596795</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737743</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023265</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964316</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964316</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398915</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V5" t="n">
-        <v>1714.523771398915</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="W5" t="n">
-        <v>1714.523771398915</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="X5" t="n">
-        <v>1654.027812082556</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="Y5" t="n">
-        <v>1257.537103003158</v>
+        <v>1640.678715023045</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347858</v>
+        <v>766.2559293026752</v>
       </c>
       <c r="C6" t="n">
-        <v>692.207412094878</v>
+        <v>615.6016988627674</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163583</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822423</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284327</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475487</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569813</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552945</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1252.641318430365</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430365</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.161601021346</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737743</v>
+        <v>1877.147508262691</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737743</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737743</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737743</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1516.790804184831</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1286.673558318118</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1097.366480668129</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757471</v>
+        <v>918.0522637436366</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1273.335947196191</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C7" t="n">
-        <v>1273.335947196191</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D7" t="n">
-        <v>1273.335947196191</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E7" t="n">
-        <v>1273.335947196191</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F7" t="n">
-        <v>1273.335947196191</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G7" t="n">
-        <v>1273.335947196191</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H7" t="n">
-        <v>1273.335947196191</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>1273.335947196191</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>1273.335947196191</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>1355.170988306133</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>1519.298628179932</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>1705.590206518197</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>1888.779840549406</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>2051.484607591114</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>2171.360773367692</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>2174.782969737743</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>2174.782969737743</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>2174.782969737743</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>2174.782969737743</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U7" t="n">
-        <v>2174.782969737743</v>
+        <v>707.231217466125</v>
       </c>
       <c r="V7" t="n">
-        <v>2013.858732665387</v>
+        <v>558.9139710421778</v>
       </c>
       <c r="W7" t="n">
-        <v>1730.528330596564</v>
+        <v>275.5835689733553</v>
       </c>
       <c r="X7" t="n">
-        <v>1496.448008379547</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.335947196191</v>
+        <v>41.50324675633844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>935.7499273842031</v>
+        <v>857.3140096695423</v>
       </c>
       <c r="C8" t="n">
-        <v>935.7499273842031</v>
+        <v>857.3140096695423</v>
       </c>
       <c r="D8" t="n">
-        <v>935.7499273842031</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,46 +4808,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2064.796883612205</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2319.552780392428</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2063.800050827027</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1721.693241530545</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W8" t="n">
-        <v>1721.693241530545</v>
+        <v>1253.804718748941</v>
       </c>
       <c r="X8" t="n">
-        <v>1332.240636463602</v>
+        <v>1253.804718748941</v>
       </c>
       <c r="Y8" t="n">
-        <v>935.7499273842031</v>
+        <v>857.3140096695423</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>854.2900019614187</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>684.084884027408</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1788.408699622868</v>
+        <v>1470.676576838057</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1149.297350487182</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>835.652496850043</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2740.928571142733</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2441.725811257214</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2124.069481336465</v>
       </c>
       <c r="Y11" t="n">
-        <v>1788.408699622868</v>
+        <v>1799.37504740326</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>973.7913173233209</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>479.2406156985692</v>
+        <v>401.9661753553333</v>
       </c>
       <c r="C13" t="n">
-        <v>380.8317729107521</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="D13" t="n">
-        <v>380.8317729107521</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="E13" t="n">
-        <v>297.0692359161485</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F13" t="n">
-        <v>297.0692359161485</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>200.6114571617877</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>116.9291812694754</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U13" t="n">
-        <v>1149.68534223645</v>
+        <v>1234.694948964037</v>
       </c>
       <c r="V13" t="n">
-        <v>955.5022722034679</v>
+        <v>1040.511878931055</v>
       </c>
       <c r="W13" t="n">
-        <v>743.9681452808394</v>
+        <v>828.9777520084265</v>
       </c>
       <c r="X13" t="n">
-        <v>743.9681452808394</v>
+        <v>666.6937049376035</v>
       </c>
       <c r="Y13" t="n">
-        <v>592.6523592436766</v>
+        <v>515.3779189004407</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1691.856237801876</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
-        <v>1370.477011451001</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>1056.832157813862</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>726.0449080766007</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527722</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2675.573482021633</v>
       </c>
       <c r="W14" t="n">
-        <v>2589.224243848344</v>
+        <v>2675.573482021633</v>
       </c>
       <c r="X14" t="n">
-        <v>2345.249142300284</v>
+        <v>2357.917152100884</v>
       </c>
       <c r="Y14" t="n">
-        <v>2020.554708367079</v>
+        <v>2033.222718167679</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420617</v>
+        <v>580.5954097716041</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542447</v>
+        <v>482.1865669837872</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029532</v>
+        <v>398.3497290324958</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083496</v>
+        <v>314.5871920378922</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>229.0575323970591</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>132.5997536426985</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922022</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1174.22415044278</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="V16" t="n">
-        <v>980.0410804097977</v>
+        <v>1007.606986424697</v>
       </c>
       <c r="W16" t="n">
-        <v>768.5069534871692</v>
+        <v>1007.606986424697</v>
       </c>
       <c r="X16" t="n">
-        <v>768.5069534871692</v>
+        <v>845.3229393538742</v>
       </c>
       <c r="Y16" t="n">
-        <v>768.5069534871692</v>
+        <v>694.0071533167114</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5601,16 +5601,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498046</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5832,22 +5832,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.571845448837</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1942.349816659396</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229836</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446688</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184686</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567326</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879418</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296498</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5972,19 +5972,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6005,7 +6005,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6017,10 +6017,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6063,19 +6063,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
@@ -6154,43 +6154,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797591</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296498</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429869</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
         <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
         <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,19 +6257,19 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6315,13 +6315,13 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1875.180111332205</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
-        <v>2391.700393923186</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985346</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414154</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878063</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879676</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746016</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.44903272825</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102265</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286442</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988157</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026475</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6455,58 +6455,58 @@
         <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471387999</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662618</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755553</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985356</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796857</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286451</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026484</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222128</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654423</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463656</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057083</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189317</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076151</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495896</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770514</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741582</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513234</v>
+        <v>1722.160576876728</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150696</v>
+        <v>2249.97186051419</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043024</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174546</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042565</v>
+        <v>3334.696634253972</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038075</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908491</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397272</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761236</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394119</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291772</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154193</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.43530700416</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807924</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408846</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623649</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732527</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563845</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288499</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076151</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227153</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210285</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210285</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.896622945109</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216397</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.03536301433</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746246</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965101</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918643</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237439</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123114</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546493</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834598</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431868</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076151</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076151</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507034</v>
+        <v>225.416092717097</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245032</v>
+        <v>389.5437325908968</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898378</v>
+        <v>687.4874315041436</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770882</v>
+        <v>982.3291861103357</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145867</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649516</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746638</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308579</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420494</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518093</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689359</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395476</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000901</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124382</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584465</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7026,13 +7026,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7102,16 +7102,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343045</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
@@ -7339,10 +7339,10 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296503</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184691</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567331</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296503</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.420794032163</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>564.5028797591272</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>335.0568768916741</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8061,13 +8061,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>541.7935023090936</v>
       </c>
       <c r="M3" t="n">
-        <v>129.3788906163239</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886025</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>640.3852542562116</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>359.5061581557579</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>502.3269473776656</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>291.0031325036219</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,22 +8456,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>393.9156246749224</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>454.191973973224</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8772,22 +8772,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>576.0417294606771</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9012,10 +9012,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N18" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,25 +9480,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
-        <v>535.2177063841971</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9647,7 +9647,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N23" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O23" t="n">
         <v>594.0482827698827</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>136.3731801151487</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9963,16 +9963,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>345.597757882153</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118428</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>624.8237719316268</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>242.365878359363</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.2813390381559</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6.423215684854767</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>165.9559915215531</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6026356665718</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>72.94441608896324</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>13.06963345419184</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>73.51596265133659</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1251704.399485203</v>
+        <v>1250501.304257682</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1251704.399485203</v>
+        <v>1250501.304257682</v>
       </c>
     </row>
     <row r="4">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54099.65342800703</v>
+        <v>54099.65342800706</v>
       </c>
       <c r="C2" t="n">
         <v>54099.65342800703</v>
@@ -26320,40 +26320,40 @@
         <v>54099.65342800703</v>
       </c>
       <c r="E2" t="n">
-        <v>47807.70702732014</v>
+        <v>47807.70702732013</v>
       </c>
       <c r="F2" t="n">
         <v>47807.70702732012</v>
       </c>
       <c r="G2" t="n">
+        <v>54099.65342800703</v>
+      </c>
+      <c r="H2" t="n">
+        <v>54099.65342800704</v>
+      </c>
+      <c r="I2" t="n">
         <v>54099.65342800702</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>54099.65342800703</v>
       </c>
-      <c r="I2" t="n">
-        <v>54099.65342800701</v>
-      </c>
-      <c r="J2" t="n">
-        <v>54099.65342800702</v>
-      </c>
       <c r="K2" t="n">
-        <v>54099.65342800703</v>
+        <v>54099.65342800704</v>
       </c>
       <c r="L2" t="n">
         <v>54099.65342800703</v>
       </c>
       <c r="M2" t="n">
-        <v>54099.65342800703</v>
+        <v>54099.65342800701</v>
       </c>
       <c r="N2" t="n">
         <v>54099.65342800703</v>
       </c>
       <c r="O2" t="n">
-        <v>54099.65342800702</v>
+        <v>54099.65342800705</v>
       </c>
       <c r="P2" t="n">
-        <v>54099.65342800703</v>
+        <v>54099.65342800705</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918554</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062233</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668201</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945022</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728583</v>
+        <v>62456.24177539675</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.8294596231</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840233</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840233</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26442,10 +26442,10 @@
         <v>174211.0764483299</v>
       </c>
       <c r="K4" t="n">
-        <v>174211.07644833</v>
+        <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387917</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26454,7 +26454,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="P4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.3011400137</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.3011400137</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173844</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-405474.5054878854</v>
+        <v>-401123.0596735908</v>
       </c>
       <c r="C6" t="n">
-        <v>-223269.5571960299</v>
+        <v>-227264.4026395358</v>
       </c>
       <c r="D6" t="n">
-        <v>-230437.8782177015</v>
+        <v>-238174.1674410928</v>
       </c>
       <c r="E6" t="n">
-        <v>-243202.5416389295</v>
+        <v>-243412.2731856191</v>
       </c>
       <c r="F6" t="n">
-        <v>-131079.9801648849</v>
+        <v>-131289.7117115745</v>
       </c>
       <c r="G6" t="n">
-        <v>-224956.0254081414</v>
+        <v>-224956.0254081413</v>
       </c>
       <c r="H6" t="n">
         <v>-177530.6998714594</v>
@@ -26543,22 +26543,22 @@
         <v>-177530.6998714594</v>
       </c>
       <c r="J6" t="n">
-        <v>-390572.6174687446</v>
+        <v>-384056.3323141717</v>
       </c>
       <c r="K6" t="n">
         <v>-183770.4682742424</v>
       </c>
       <c r="L6" t="n">
-        <v>-238953.0572088638</v>
+        <v>-243001.8944193357</v>
       </c>
       <c r="M6" t="n">
-        <v>-219731.5293310825</v>
+        <v>-220783.2243422706</v>
       </c>
       <c r="N6" t="n">
         <v>-177530.6998714594</v>
       </c>
       <c r="O6" t="n">
-        <v>-205298.3939142306</v>
+        <v>-205298.3939142305</v>
       </c>
       <c r="P6" t="n">
         <v>-177530.6998714594</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344358</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344358</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095188</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085251</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660729</v>
+        <v>78.07030221924593</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551312</v>
+        <v>17.58004954287445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344358</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485924</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773699</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407424</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085251</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344358</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485924</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>160.7135398079079</v>
+        <v>234.6555730789394</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938627493</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>132.6819913403933</v>
       </c>
     </row>
     <row r="4">
@@ -27540,25 +27540,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>164.1320227478108</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>101.5503160583124</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>85.61262060789227</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>325.6670792930793</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>73.86716758775731</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627493</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>104.004557025751</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>175.6308289782726</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>117.3232206832137</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>89.83064772952768</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28761,10 +28761,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634527857</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,10 +28980,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668719</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29041,7 +29041,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E23" t="n">
         <v>130.3599693155844</v>
@@ -29226,19 +29226,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.636002634528836</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>5.636002634527898</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431651</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901169</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431651</v>
+        <v>86.65052755599532</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431651</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431498</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901169</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431651</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,10 +29776,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196565875</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000713</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000713</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000713</v>
+        <v>81.10808140893246</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>76.79385455031311</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>94.97643844044563</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000713</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000713</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30174,19 +30174,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634528552</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>5.636002634528495</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30639,13 +30639,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.636002634528666</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>35.7104901066885</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30876,28 +30876,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34699,19 +34699,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344358</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>415.384388421343</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>185.4930394675777</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>451.7331554521753</v>
       </c>
       <c r="M3" t="n">
-        <v>36.99176856701197</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344358</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>490.6602026584844</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>210.3876668179738</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>409.9398253283537</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>200.0149793477079</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>244.7971333371383</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>303.8905267322988</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>483.6546074113651</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N18" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.09276664468034</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
-        <v>442.5301474953082</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528118</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>51.00106726098203</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36522,19 +36522,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873208</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716068</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060962</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004798</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853757</v>
+        <v>273.3632145670545</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698323</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>260.2256450279863</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215744</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446746</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851007</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853757</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698323</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215744</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.448038484469</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338697</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511628</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792977</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111304</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273801</v>
+        <v>43.49509683159919</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576762</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>159.4555122371231</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528632</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>280.0164728154044</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371501</v>
+        <v>277.1281693097888</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380295</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102238</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873205</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>193.8093140873204</v>
       </c>
       <c r="N40" t="n">
-        <v>190.6760370094874</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>539.4516590774601</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.4214974565487</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37953,7 +37953,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>156.7975262446467</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38190,10 +38190,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
